--- a/testData/WebForm/TC004_WF_RRUserY_OneConditionY_Test.xlsx
+++ b/testData/WebForm/TC004_WF_RRUserY_OneConditionY_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="83">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -225,24 +225,12 @@
     <t>Delhi</t>
   </si>
   <si>
-    <t>9840065896</t>
-  </si>
-  <si>
-    <t>9840046890</t>
-  </si>
-  <si>
     <t>WF_RRUserY_OneConditionY</t>
   </si>
   <si>
-    <t>9840019812</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>9840092596</t>
-  </si>
-  <si>
     <t>WebformId</t>
   </si>
   <si>
@@ -261,16 +249,10 @@
     <t>9840085522</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>2024-06-29 11:58:13</t>
   </si>
   <si>
     <t>9840096205</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>2024-06-29 11:58:37</t>
@@ -292,7 +274,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -634,135 +615,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AM2" sqref="AM2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7265625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="17" max="17" customWidth="true" width="10.54296875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="20" max="20" customWidth="true" width="10.54296875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="23" max="23" customWidth="true" width="10.54296875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="27" max="27" customWidth="true" width="17.81640625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="35" max="36" customWidth="true" width="9.6328125"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="39" max="39" customWidth="true" width="15.26953125"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.54296875" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.54296875" customWidth="1"/>
+    <col min="21" max="21" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.54296875" customWidth="1"/>
+    <col min="24" max="24" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.81640625" customWidth="1"/>
+    <col min="28" max="28" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.6328125" customWidth="1"/>
+    <col min="37" max="37" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.26953125" customWidth="1"/>
+    <col min="40" max="40" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s" s="0">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s" s="0">
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s" s="0">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" t="s" s="0">
+      <c r="R1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s" s="0">
+      <c r="S1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s" s="0">
+      <c r="T1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" t="s" s="0">
+      <c r="U1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" t="s" s="0">
+      <c r="V1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" t="s" s="0">
+      <c r="W1" t="s">
         <v>27</v>
       </c>
-      <c r="X1" t="s" s="0">
+      <c r="X1" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" t="s" s="0">
+      <c r="Y1" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" t="s" s="0">
+      <c r="Z1" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" t="s" s="0">
+      <c r="AA1" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" t="s" s="0">
+      <c r="AB1" t="s">
         <v>33</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -771,37 +752,37 @@
       <c r="AD1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" t="s" s="0">
+      <c r="AE1" t="s">
         <v>57</v>
       </c>
-      <c r="AF1" t="s" s="0">
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s" s="0">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" t="s" s="0">
+      <c r="AH1" t="s">
         <v>58</v>
       </c>
-      <c r="AI1" t="s" s="0">
+      <c r="AI1" t="s">
         <v>28</v>
       </c>
-      <c r="AJ1" t="s" s="0">
+      <c r="AJ1" t="s">
         <v>29</v>
       </c>
-      <c r="AK1" t="s" s="0">
+      <c r="AK1" t="s">
         <v>62</v>
       </c>
-      <c r="AL1" t="s" s="0">
+      <c r="AL1" t="s">
         <v>63</v>
       </c>
-      <c r="AM1" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="AN1" t="s" s="0">
+      <c r="AM1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN1" t="s">
         <v>20</v>
       </c>
-      <c r="AO1" t="s" s="0">
+      <c r="AO1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -815,80 +796,80 @@
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>75</v>
+      <c r="F2" t="s">
+        <v>71</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s" s="0">
+      <c r="L2" t="s">
         <v>48</v>
       </c>
-      <c r="M2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s" s="0">
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
         <v>34</v>
       </c>
-      <c r="O2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="P2" t="s" s="0">
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" t="s" s="0">
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="S2" t="s" s="0">
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
         <v>61</v>
       </c>
-      <c r="T2" t="s" s="0">
+      <c r="T2" t="s">
         <v>36</v>
       </c>
-      <c r="U2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="V2" t="s" s="0">
+      <c r="U2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" t="s">
         <v>61</v>
       </c>
-      <c r="W2" t="s" s="0">
+      <c r="W2" t="s">
         <v>37</v>
       </c>
-      <c r="X2" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="Y2" t="s" s="0">
+      <c r="X2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" t="s">
         <v>61</v>
       </c>
-      <c r="Z2" s="0">
+      <c r="Z2">
         <v>0</v>
       </c>
-      <c r="AA2" t="s" s="0">
+      <c r="AA2" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" t="s" s="0">
-        <v>70</v>
+      <c r="AB2" t="s">
+        <v>68</v>
       </c>
       <c r="AC2" s="4" t="s">
         <v>55</v>
@@ -914,20 +895,20 @@
       <c r="AJ2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AK2" t="s" s="0">
+      <c r="AK2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL2" t="s">
         <v>72</v>
       </c>
-      <c r="AL2" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="AM2" s="0">
+      <c r="AM2">
         <v>134</v>
       </c>
-      <c r="AN2" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="AO2" t="s" s="0">
-        <v>78</v>
+      <c r="AN2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
@@ -940,34 +921,34 @@
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>79</v>
+      <c r="F3" t="s">
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" t="s" s="0">
+      <c r="L3" t="s">
         <v>49</v>
       </c>
-      <c r="M3" t="s" s="0">
+      <c r="M3" t="s">
         <v>18</v>
       </c>
       <c r="AC3" s="4" t="s">
@@ -976,11 +957,11 @@
       <c r="AD3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AN3" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="AO3" t="s" s="0">
-        <v>81</v>
+      <c r="AN3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
@@ -993,34 +974,34 @@
       <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>82</v>
+      <c r="F4" t="s">
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="L4" t="s" s="0">
+      <c r="L4" t="s">
         <v>50</v>
       </c>
-      <c r="M4" t="s" s="0">
+      <c r="M4" t="s">
         <v>18</v>
       </c>
       <c r="AC4" s="4" t="s">
@@ -1029,11 +1010,11 @@
       <c r="AD4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AN4" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="AO4" t="s" s="0">
-        <v>84</v>
+      <c r="AN4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
@@ -1046,35 +1027,35 @@
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>1243213423</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" t="s" s="0">
+      <c r="K5" t="s">
         <v>14</v>
       </c>
-      <c r="L5" t="s" s="0">
+      <c r="L5" t="s">
         <v>51</v>
       </c>
-      <c r="M5" t="s" s="0">
-        <v>61</v>
+      <c r="M5" t="s">
+        <v>18</v>
       </c>
       <c r="AC5" s="4" t="s">
         <v>55</v>
@@ -1093,35 +1074,35 @@
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>4567547656</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>11</v>
       </c>
-      <c r="K6" t="s" s="0">
+      <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="L6" t="s" s="0">
+      <c r="L6" t="s">
         <v>52</v>
       </c>
-      <c r="M6" t="s" s="0">
-        <v>61</v>
+      <c r="M6" t="s">
+        <v>18</v>
       </c>
       <c r="AC6" s="4" t="s">
         <v>55</v>
@@ -1140,34 +1121,34 @@
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>85</v>
+      <c r="F7" t="s">
+        <v>79</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="H7" t="s">
         <v>44</v>
       </c>
-      <c r="I7" t="s" s="0">
+      <c r="I7" t="s">
         <v>10</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" t="s" s="0">
+      <c r="K7" t="s">
         <v>14</v>
       </c>
-      <c r="L7" t="s" s="0">
+      <c r="L7" t="s">
         <v>48</v>
       </c>
-      <c r="M7" t="s" s="0">
+      <c r="M7" t="s">
         <v>18</v>
       </c>
       <c r="AC7" s="4" t="s">
@@ -1176,11 +1157,11 @@
       <c r="AD7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AN7" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="AO7" t="s" s="0">
-        <v>86</v>
+      <c r="AN7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
@@ -1193,34 +1174,34 @@
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s" s="0">
-        <v>87</v>
+      <c r="F8" t="s">
+        <v>81</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>45</v>
       </c>
-      <c r="I8" t="s" s="0">
+      <c r="I8" t="s">
         <v>10</v>
       </c>
-      <c r="J8" t="s" s="0">
+      <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" t="s" s="0">
+      <c r="K8" t="s">
         <v>14</v>
       </c>
-      <c r="L8" t="s" s="0">
+      <c r="L8" t="s">
         <v>49</v>
       </c>
-      <c r="M8" t="s" s="0">
+      <c r="M8" t="s">
         <v>18</v>
       </c>
       <c r="AC8" s="4" t="s">
@@ -1229,11 +1210,11 @@
       <c r="AD8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AN8" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="AO8" t="s" s="0">
-        <v>88</v>
+      <c r="AN8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
@@ -1246,35 +1227,35 @@
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>7890870980</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="I9" t="s" s="0">
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="J9" t="s" s="0">
+      <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="K9" t="s">
         <v>14</v>
       </c>
-      <c r="L9" t="s" s="0">
+      <c r="L9" t="s">
         <v>50</v>
       </c>
-      <c r="M9" t="s" s="0">
-        <v>61</v>
+      <c r="M9" t="s">
+        <v>18</v>
       </c>
       <c r="AC9" s="4" t="s">
         <v>55</v>
@@ -1293,35 +1274,35 @@
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>7890870981</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="I10" t="s" s="0">
+      <c r="I10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s" s="0">
+      <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="K10" t="s" s="0">
+      <c r="K10" t="s">
         <v>14</v>
       </c>
-      <c r="L10" t="s" s="0">
+      <c r="L10" t="s">
         <v>51</v>
       </c>
-      <c r="M10" t="s" s="0">
-        <v>61</v>
+      <c r="M10" t="s">
+        <v>18</v>
       </c>
       <c r="AC10" s="4" t="s">
         <v>55</v>

--- a/testData/WebForm/TC004_WF_RRUserY_OneConditionY_Test.xlsx
+++ b/testData/WebForm/TC004_WF_RRUserY_OneConditionY_Test.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="103">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -268,12 +268,73 @@
   </si>
   <si>
     <t>2024-06-29 11:59:26</t>
+  </si>
+  <si>
+    <t>9840055809</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:56:24</t>
+  </si>
+  <si>
+    <t>9840015397</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:56:47</t>
+  </si>
+  <si>
+    <t>9840087277</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:57:11</t>
+  </si>
+  <si>
+    <t>9840046916</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:57:33</t>
+  </si>
+  <si>
+    <t>9840006362</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:57:54</t>
+  </si>
+  <si>
+    <t>9840093400</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:58:16</t>
+  </si>
+  <si>
+    <t>9840056658</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:58:38</t>
+  </si>
+  <si>
+    <t>9840029684</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:59:00</t>
+  </si>
+  <si>
+    <t>9840085653</t>
+  </si>
+  <si>
+    <t>2024-07-04 12:59:21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -621,129 +682,129 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.54296875" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.54296875" customWidth="1"/>
-    <col min="21" max="21" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.54296875" customWidth="1"/>
-    <col min="24" max="24" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.81640625" customWidth="1"/>
-    <col min="28" max="28" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.6328125" customWidth="1"/>
-    <col min="37" max="37" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.26953125" customWidth="1"/>
-    <col min="40" max="40" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7265625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="17" max="17" customWidth="true" width="10.54296875"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="20" max="20" customWidth="true" width="10.54296875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="23" max="23" customWidth="true" width="10.54296875"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.81640625"/>
+    <col min="27" max="27" customWidth="true" width="17.81640625"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="27.36328125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="15.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.26953125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="6.1796875"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.54296875"/>
+    <col min="35" max="36" customWidth="true" width="9.6328125"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="12.90625"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="15.26953125"/>
+    <col min="39" max="39" customWidth="true" width="15.26953125"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.81640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" t="s" s="0">
         <v>33</v>
       </c>
       <c r="AC1" s="4" t="s">
@@ -752,37 +813,37 @@
       <c r="AD1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" t="s" s="0">
         <v>21</v>
       </c>
     </row>
@@ -796,79 +857,79 @@
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
-        <v>71</v>
+      <c r="F2" t="s" s="0">
+        <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="0">
         <v>0</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" t="s" s="0">
         <v>68</v>
       </c>
       <c r="AC2" s="4" t="s">
@@ -895,20 +956,20 @@
       <c r="AJ2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="AL2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM2">
+      <c r="AL2" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="AM2" s="0">
         <v>134</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AN2" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="AO2" t="s">
-        <v>74</v>
+      <c r="AO2" t="s" s="0">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
@@ -921,34 +982,34 @@
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>75</v>
+      <c r="F3" t="s" s="0">
+        <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC3" s="4" t="s">
@@ -957,11 +1018,11 @@
       <c r="AD3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="AO3" t="s">
-        <v>76</v>
+      <c r="AO3" t="s" s="0">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
@@ -974,34 +1035,34 @@
       <c r="C4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>77</v>
+      <c r="F4" t="s" s="0">
+        <v>87</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC4" s="4" t="s">
@@ -1010,11 +1071,11 @@
       <c r="AD4" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AN4" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="AO4" t="s">
-        <v>78</v>
+      <c r="AO4" t="s" s="0">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
@@ -1027,34 +1088,34 @@
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F5">
-        <v>1243213423</v>
+      <c r="F5" t="s" s="0">
+        <v>90</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC5" s="4" t="s">
@@ -1062,6 +1123,12 @@
       </c>
       <c r="AD5" s="4" t="s">
         <v>66</v>
+      </c>
+      <c r="AN5" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="AO5" t="s" s="0">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
@@ -1074,34 +1141,34 @@
       <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F6">
-        <v>4567547656</v>
+      <c r="F6" t="s" s="0">
+        <v>93</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC6" s="4" t="s">
@@ -1109,6 +1176,12 @@
       </c>
       <c r="AD6" s="4" t="s">
         <v>67</v>
+      </c>
+      <c r="AN6" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="AO6" t="s" s="0">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
@@ -1121,34 +1194,34 @@
       <c r="C7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" t="s">
-        <v>79</v>
+      <c r="F7" t="s" s="0">
+        <v>95</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC7" s="4" t="s">
@@ -1157,11 +1230,11 @@
       <c r="AD7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="AN7" t="s">
+      <c r="AN7" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="AO7" t="s">
-        <v>80</v>
+      <c r="AO7" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
@@ -1174,34 +1247,34 @@
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" t="s">
-        <v>81</v>
+      <c r="F8" t="s" s="0">
+        <v>97</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC8" s="4" t="s">
@@ -1210,11 +1283,11 @@
       <c r="AD8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AN8" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="AO8" t="s">
-        <v>82</v>
+      <c r="AO8" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
@@ -1227,34 +1300,34 @@
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F9">
-        <v>7890870980</v>
+      <c r="F9" t="s" s="0">
+        <v>99</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC9" s="4" t="s">
@@ -1262,6 +1335,12 @@
       </c>
       <c r="AD9" s="4" t="s">
         <v>65</v>
+      </c>
+      <c r="AN9" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="AO9" t="s" s="0">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
@@ -1274,34 +1353,34 @@
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10">
-        <v>7890870981</v>
+      <c r="F10" t="s" s="0">
+        <v>101</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" t="s" s="0">
         <v>18</v>
       </c>
       <c r="AC10" s="4" t="s">
@@ -1309,6 +1388,12 @@
       </c>
       <c r="AD10" s="4" t="s">
         <v>66</v>
+      </c>
+      <c r="AN10" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="AO10" t="s" s="0">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC004_WF_RRUserY_OneConditionY_Test.xlsx
+++ b/testData/WebForm/TC004_WF_RRUserY_OneConditionY_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="121">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -328,6 +328,60 @@
   </si>
   <si>
     <t>2024-07-04 12:59:21</t>
+  </si>
+  <si>
+    <t>9840083932</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:16:27</t>
+  </si>
+  <si>
+    <t>9840020013</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:16:49</t>
+  </si>
+  <si>
+    <t>9840045826</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:17:09</t>
+  </si>
+  <si>
+    <t>9840006874</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:17:30</t>
+  </si>
+  <si>
+    <t>9840023157</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:17:51</t>
+  </si>
+  <si>
+    <t>9840057310</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:18:12</t>
+  </si>
+  <si>
+    <t>9840017603</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:18:32</t>
+  </si>
+  <si>
+    <t>9840054952</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:18:52</t>
+  </si>
+  <si>
+    <t>9840070710</t>
+  </si>
+  <si>
+    <t>2024-07-08 12:19:13</t>
   </si>
 </sst>
 </file>
@@ -864,7 +918,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -960,7 +1014,7 @@
         <v>69</v>
       </c>
       <c r="AL2" t="s" s="0">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AM2" s="0">
         <v>134</v>
@@ -969,7 +1023,7 @@
         <v>73</v>
       </c>
       <c r="AO2" t="s" s="0">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
@@ -989,7 +1043,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -1022,7 +1076,7 @@
         <v>73</v>
       </c>
       <c r="AO3" t="s" s="0">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
@@ -1042,7 +1096,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -1075,7 +1129,7 @@
         <v>73</v>
       </c>
       <c r="AO4" t="s" s="0">
-        <v>89</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
@@ -1095,7 +1149,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1128,7 +1182,7 @@
         <v>73</v>
       </c>
       <c r="AO5" t="s" s="0">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
@@ -1148,7 +1202,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -1181,7 +1235,7 @@
         <v>73</v>
       </c>
       <c r="AO6" t="s" s="0">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
@@ -1201,7 +1255,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1234,7 +1288,7 @@
         <v>73</v>
       </c>
       <c r="AO7" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
@@ -1254,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1287,7 +1341,7 @@
         <v>73</v>
       </c>
       <c r="AO8" t="s" s="0">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
@@ -1307,7 +1361,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1340,7 +1394,7 @@
         <v>73</v>
       </c>
       <c r="AO9" t="s" s="0">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
@@ -1360,7 +1414,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1393,7 +1447,7 @@
         <v>73</v>
       </c>
       <c r="AO10" t="s" s="0">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC004_WF_RRUserY_OneConditionY_Test.xlsx
+++ b/testData/WebForm/TC004_WF_RRUserY_OneConditionY_Test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="139">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -382,6 +382,60 @@
   </si>
   <si>
     <t>2024-07-08 12:19:13</t>
+  </si>
+  <si>
+    <t>9840057677</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:33:31</t>
+  </si>
+  <si>
+    <t>9840048610</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:34:01</t>
+  </si>
+  <si>
+    <t>9840098922</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:34:30</t>
+  </si>
+  <si>
+    <t>9840040570</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:34:59</t>
+  </si>
+  <si>
+    <t>9840011739</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:35:29</t>
+  </si>
+  <si>
+    <t>9840058466</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:35:58</t>
+  </si>
+  <si>
+    <t>9840046242</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:36:26</t>
+  </si>
+  <si>
+    <t>9840053486</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:36:56</t>
+  </si>
+  <si>
+    <t>9840085814</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:37:25</t>
   </si>
 </sst>
 </file>
@@ -918,7 +972,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -1014,7 +1068,7 @@
         <v>69</v>
       </c>
       <c r="AL2" t="s" s="0">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="AM2" s="0">
         <v>134</v>
@@ -1023,7 +1077,7 @@
         <v>73</v>
       </c>
       <c r="AO2" t="s" s="0">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
@@ -1043,7 +1097,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -1076,7 +1130,7 @@
         <v>73</v>
       </c>
       <c r="AO3" t="s" s="0">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
@@ -1096,7 +1150,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -1129,7 +1183,7 @@
         <v>73</v>
       </c>
       <c r="AO4" t="s" s="0">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
@@ -1149,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1182,7 +1236,7 @@
         <v>73</v>
       </c>
       <c r="AO5" t="s" s="0">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
@@ -1202,7 +1256,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -1235,7 +1289,7 @@
         <v>73</v>
       </c>
       <c r="AO6" t="s" s="0">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
@@ -1255,7 +1309,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1288,7 +1342,7 @@
         <v>73</v>
       </c>
       <c r="AO7" t="s" s="0">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
@@ -1308,7 +1362,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1341,7 +1395,7 @@
         <v>73</v>
       </c>
       <c r="AO8" t="s" s="0">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
@@ -1361,7 +1415,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1394,7 +1448,7 @@
         <v>73</v>
       </c>
       <c r="AO9" t="s" s="0">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
@@ -1414,7 +1468,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1447,7 +1501,7 @@
         <v>73</v>
       </c>
       <c r="AO10" t="s" s="0">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/testData/WebForm/TC004_WF_RRUserY_OneConditionY_Test.xlsx
+++ b/testData/WebForm/TC004_WF_RRUserY_OneConditionY_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="97">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -234,208 +234,82 @@
     <t>WebformId</t>
   </si>
   <si>
-    <t>9840066782</t>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>9840048610</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:34:01</t>
+  </si>
+  <si>
+    <t>9840098922</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:34:30</t>
+  </si>
+  <si>
+    <t>9840040570</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:34:59</t>
+  </si>
+  <si>
+    <t>9840011739</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:35:29</t>
+  </si>
+  <si>
+    <t>9840058466</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:35:58</t>
+  </si>
+  <si>
+    <t>9840046242</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:36:26</t>
+  </si>
+  <si>
+    <t>9840053486</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:36:56</t>
+  </si>
+  <si>
+    <t>9840085814</t>
+  </si>
+  <si>
+    <t>2024-07-17 12:37:25</t>
+  </si>
+  <si>
+    <t>9840011852</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:57:49</t>
-  </si>
-  <si>
-    <t>9840085522</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:58:13</t>
-  </si>
-  <si>
-    <t>9840096205</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:58:37</t>
-  </si>
-  <si>
-    <t>9840092159</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:59:01</t>
-  </si>
-  <si>
-    <t>9840044370</t>
-  </si>
-  <si>
-    <t>2024-06-29 11:59:26</t>
-  </si>
-  <si>
-    <t>9840055809</t>
-  </si>
-  <si>
-    <t>2024-07-04 12:56:24</t>
-  </si>
-  <si>
-    <t>9840015397</t>
-  </si>
-  <si>
-    <t>2024-07-04 12:56:47</t>
-  </si>
-  <si>
-    <t>9840087277</t>
+    <t>2024-12-30 14:38:45</t>
+  </si>
+  <si>
+    <t>9840018794</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>2024-07-04 12:57:11</t>
-  </si>
-  <si>
-    <t>9840046916</t>
+    <t>2024-12-30 14:43:39</t>
+  </si>
+  <si>
+    <t>9840041310</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>2024-07-04 12:57:33</t>
-  </si>
-  <si>
-    <t>9840006362</t>
-  </si>
-  <si>
-    <t>2024-07-04 12:57:54</t>
-  </si>
-  <si>
-    <t>9840093400</t>
-  </si>
-  <si>
-    <t>2024-07-04 12:58:16</t>
-  </si>
-  <si>
-    <t>9840056658</t>
-  </si>
-  <si>
-    <t>2024-07-04 12:58:38</t>
-  </si>
-  <si>
-    <t>9840029684</t>
-  </si>
-  <si>
-    <t>2024-07-04 12:59:00</t>
-  </si>
-  <si>
-    <t>9840085653</t>
-  </si>
-  <si>
-    <t>2024-07-04 12:59:21</t>
-  </si>
-  <si>
-    <t>9840083932</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:16:27</t>
-  </si>
-  <si>
-    <t>9840020013</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:16:49</t>
-  </si>
-  <si>
-    <t>9840045826</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:17:09</t>
-  </si>
-  <si>
-    <t>9840006874</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:17:30</t>
-  </si>
-  <si>
-    <t>9840023157</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:17:51</t>
-  </si>
-  <si>
-    <t>9840057310</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:18:12</t>
-  </si>
-  <si>
-    <t>9840017603</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:18:32</t>
-  </si>
-  <si>
-    <t>9840054952</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:18:52</t>
-  </si>
-  <si>
-    <t>9840070710</t>
-  </si>
-  <si>
-    <t>2024-07-08 12:19:13</t>
-  </si>
-  <si>
-    <t>9840057677</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:33:31</t>
-  </si>
-  <si>
-    <t>9840048610</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:34:01</t>
-  </si>
-  <si>
-    <t>9840098922</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:34:30</t>
-  </si>
-  <si>
-    <t>9840040570</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:34:59</t>
-  </si>
-  <si>
-    <t>9840011739</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:35:29</t>
-  </si>
-  <si>
-    <t>9840058466</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:35:58</t>
-  </si>
-  <si>
-    <t>9840046242</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:36:26</t>
-  </si>
-  <si>
-    <t>9840053486</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:36:56</t>
-  </si>
-  <si>
-    <t>9840085814</t>
-  </si>
-  <si>
-    <t>2024-07-17 12:37:25</t>
+    <t>2025-01-03 17:05:08</t>
   </si>
 </sst>
 </file>
@@ -785,52 +659,52 @@
   <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M10"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.36328125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="28.453125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7265625"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.42578125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.7109375"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="24.54296875"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7265625"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7265625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="24.5703125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.42578125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.7109375"/>
     <col min="11" max="11" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="9.08984375"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="17" max="17" customWidth="true" width="10.54296875"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="20" max="20" customWidth="true" width="10.54296875"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="23" max="23" customWidth="true" width="10.54296875"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="17.81640625"/>
-    <col min="27" max="27" customWidth="true" width="17.81640625"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="27.36328125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="15.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.26953125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="6.1796875"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="10.54296875"/>
-    <col min="35" max="36" customWidth="true" width="9.6328125"/>
-    <col min="37" max="37" bestFit="true" customWidth="true" width="12.90625"/>
-    <col min="38" max="38" bestFit="true" customWidth="true" width="15.26953125"/>
-    <col min="39" max="39" customWidth="true" width="15.26953125"/>
-    <col min="40" max="40" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="9.140625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="17" max="17" customWidth="true" width="10.5703125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="20" max="20" customWidth="true" width="10.5703125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="23" max="23" customWidth="true" width="10.5703125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.85546875"/>
+    <col min="27" max="27" customWidth="true" width="17.85546875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="27.42578125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="15.85546875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="6.140625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="7.5703125"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="10.5703125"/>
+    <col min="35" max="36" customWidth="true" width="9.5703125"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="12.85546875"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="39" max="39" customWidth="true" width="15.28515625"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="11.42578125"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="11.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
@@ -955,7 +829,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -972,7 +846,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -993,7 +867,7 @@
         <v>48</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N2" t="s" s="0">
         <v>34</v>
@@ -1065,22 +939,22 @@
         <v>61</v>
       </c>
       <c r="AK2" t="s" s="0">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="AL2" t="s" s="0">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="AM2" s="0">
         <v>134</v>
       </c>
       <c r="AN2" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AO2" t="s" s="0">
-        <v>122</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1097,7 +971,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>12</v>
@@ -1127,13 +1001,13 @@
         <v>64</v>
       </c>
       <c r="AN3" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AO3" t="s" s="0">
-        <v>124</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1150,7 +1024,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>12</v>
@@ -1171,7 +1045,7 @@
         <v>50</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="AC4" s="4" t="s">
         <v>55</v>
@@ -1180,13 +1054,13 @@
         <v>65</v>
       </c>
       <c r="AN4" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AO4" t="s" s="0">
-        <v>126</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1203,7 +1077,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>12</v>
@@ -1224,7 +1098,7 @@
         <v>51</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="AC5" s="4" t="s">
         <v>55</v>
@@ -1233,13 +1107,13 @@
         <v>66</v>
       </c>
       <c r="AN5" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AO5" t="s" s="0">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1256,7 +1130,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -1277,7 +1151,7 @@
         <v>52</v>
       </c>
       <c r="M6" t="s" s="0">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="AC6" s="4" t="s">
         <v>55</v>
@@ -1286,13 +1160,13 @@
         <v>67</v>
       </c>
       <c r="AN6" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AO6" t="s" s="0">
-        <v>130</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1309,7 +1183,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -1330,7 +1204,7 @@
         <v>48</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="AC7" s="4" t="s">
         <v>55</v>
@@ -1339,13 +1213,13 @@
         <v>56</v>
       </c>
       <c r="AN7" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AO7" t="s" s="0">
-        <v>132</v>
+        <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1362,7 +1236,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>12</v>
@@ -1383,7 +1257,7 @@
         <v>49</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="AC8" s="4" t="s">
         <v>55</v>
@@ -1392,13 +1266,13 @@
         <v>64</v>
       </c>
       <c r="AN8" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AO8" t="s" s="0">
-        <v>134</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1415,7 +1289,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -1436,7 +1310,7 @@
         <v>50</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="AC9" s="4" t="s">
         <v>55</v>
@@ -1445,13 +1319,13 @@
         <v>65</v>
       </c>
       <c r="AN9" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AO9" t="s" s="0">
-        <v>136</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1468,7 +1342,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
@@ -1489,7 +1363,7 @@
         <v>51</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="AC10" s="4" t="s">
         <v>55</v>
@@ -1498,10 +1372,10 @@
         <v>66</v>
       </c>
       <c r="AN10" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AO10" t="s" s="0">
-        <v>138</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
